--- a/Energy/frac_scoe_heat_energy_residential_coal/row_data/frac_scoe_heat_energy_proportion.xlsx
+++ b/Energy/frac_scoe_heat_energy_residential_coal/row_data/frac_scoe_heat_energy_proportion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mateotrc/Documents/TEC/DatosEner/datos/frac_scoe_heat_energy_residential_coal/row_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C01BF0-DE8F-4943-8F31-520430D145E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BC291A-E905-1D4E-BEBC-54EF83D4152A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="860" windowWidth="27640" windowHeight="16000" xr2:uid="{D7C197B3-7EB3-6A45-82A0-56F0419D22C9}"/>
+    <workbookView xWindow="1160" yWindow="860" windowWidth="27640" windowHeight="16000" xr2:uid="{D7C197B3-7EB3-6A45-82A0-56F0419D22C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,9 +49,6 @@
     <t>frac_scoe_heat_energy_residential_electricity</t>
   </si>
   <si>
-    <t>frac_scoe_heat_energy_residential_gas_petroleum_liquid</t>
-  </si>
-  <si>
     <t>frac_scoe_heat_energy_residential_gasoline</t>
   </si>
   <si>
@@ -89,6 +86,9 @@
   </si>
   <si>
     <t>Nuclear</t>
+  </si>
+  <si>
+    <t>frac_scoe_heat_energy_residential_hydrocarbon_gas_liquids</t>
   </si>
 </sst>
 </file>
@@ -459,7 +459,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -470,19 +470,19 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -493,10 +493,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>0.1</v>
@@ -504,7 +504,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
@@ -515,10 +515,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>0.4</v>
@@ -526,10 +526,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>0.1</v>
@@ -537,10 +537,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C7">
         <v>0.25</v>
@@ -548,7 +548,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>3</v>
@@ -559,7 +559,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>3</v>
@@ -570,7 +570,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>3</v>
@@ -581,10 +581,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -592,10 +592,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12">
         <v>1</v>
